--- a/data/questionnaire/실험참가자최종.xlsx
+++ b/data/questionnaire/실험참가자최종.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\GameAgent\LLMGA\data\questionnaire\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52AD774-F457-4506-9C46-BF08BB2FF3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="45070" yWindow="2100" windowWidth="7000" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -209,28 +218,52 @@
   </si>
   <si>
     <t>박성령</t>
+  </si>
+  <si>
+    <t>&gt;&gt;7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <strike/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -239,11 +272,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -257,38 +296,37 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -478,26 +516,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.13"/>
-    <col customWidth="1" min="2" max="3" width="9.75"/>
-    <col customWidth="1" min="4" max="5" width="8.25"/>
-    <col customWidth="1" min="8" max="8" width="6.25"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="5" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -537,7 +580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -560,7 +603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -583,7 +626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -606,7 +649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -623,7 +666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -640,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -657,7 +700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -674,7 +717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -691,7 +734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -711,7 +754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -728,7 +771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -745,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -762,7 +805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -779,7 +822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -796,7 +839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -813,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -830,7 +873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -847,7 +890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -864,7 +907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -881,7 +924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -898,7 +941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -915,7 +958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -932,7 +975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -949,7 +992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -965,8 +1008,11 @@
       <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="F26" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
@@ -982,8 +1028,12 @@
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F27" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>